--- a/public/stylesheets/booth_data_list.xlsx
+++ b/public/stylesheets/booth_data_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimseonhee126/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimseonhee126/Desktop/develop/js/INU-Festival-BE/public/stylesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC198558-816B-5748-87C3-E376714FFECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F19653-D673-7049-8A4D-A4555BE77617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,7 +878,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m\,\ d"/>
+    <numFmt numFmtId="176" formatCode="m\,\ d"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1024,7 +1024,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1036,13 +1036,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1264,8 +1264,8 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J111"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1280,34 +1280,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
@@ -1328,34 +1328,34 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="13">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="19">
         <v>33.473408435858403</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="19">
         <v>124.85122876130499</v>
       </c>
-      <c r="I2" s="22">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="1"/>
@@ -1376,34 +1376,34 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="19">
         <v>33.473322390877797</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="19">
         <v>124.851880510287</v>
       </c>
-      <c r="I3" s="22">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="1"/>
@@ -1424,34 +1424,34 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="13">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="19">
         <v>33.4736619258003</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="19">
         <v>124.85233246001999</v>
       </c>
-      <c r="I4" s="22">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22" t="s">
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="1"/>
@@ -1472,34 +1472,34 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="13">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="19">
         <v>33.473385520579299</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="19">
         <v>124.85136269381699</v>
       </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="1"/>
@@ -1520,32 +1520,32 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="13">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="19">
         <v>33.473422156080503</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="19">
         <v>124.851396206422</v>
       </c>
-      <c r="I6" s="22">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="1"/>
@@ -1566,32 +1566,32 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="13">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="19">
         <v>33.473788559542101</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="19">
         <v>124.85131832446</v>
       </c>
-      <c r="I7" s="22">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="1"/>
@@ -1612,32 +1612,32 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="13">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="19">
         <v>33.473539096587103</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="19">
         <v>124.851694469992</v>
       </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="1"/>
@@ -1658,32 +1658,32 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="13">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="19">
         <v>33.4732774540647</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="19">
         <v>124.8515761673</v>
       </c>
-      <c r="I9" s="22">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="1"/>
@@ -1704,32 +1704,32 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="13">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="19">
         <v>33.473343492308103</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="19">
         <v>124.851849874335</v>
       </c>
-      <c r="I10" s="22">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="1"/>
@@ -1750,32 +1750,32 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="19">
         <v>33.473410748171403</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="19">
         <v>124.851985882881</v>
       </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="1"/>
@@ -1796,32 +1796,32 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="13">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="19">
         <v>33.473621089094202</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="19">
         <v>124.85101700633101</v>
       </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="1"/>
@@ -1842,32 +1842,32 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="13">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="19">
         <v>33.473464309666802</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="19">
         <v>124.85174794221599</v>
       </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22" t="s">
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="1"/>
@@ -1888,34 +1888,34 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="13">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="19">
         <v>33.4734949551138</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="19">
         <v>124.851643933907</v>
       </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22" t="s">
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="1"/>
@@ -1936,32 +1936,32 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="13">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="19">
         <v>33.473983195264097</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <v>124.85173082973201</v>
       </c>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22" t="s">
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="1"/>
@@ -1982,32 +1982,32 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="13">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="19">
         <v>33.473439902622097</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="19">
         <v>124.85179586845599</v>
       </c>
-      <c r="I16" s="22">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22" t="s">
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="1"/>
@@ -2028,32 +2028,32 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="13">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="19">
         <v>33.473915939098703</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="19">
         <v>124.851594820529</v>
       </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22" t="s">
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="1"/>
@@ -2074,32 +2074,32 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="13">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="19">
         <v>33.473762586523897</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="19">
         <v>124.851275944126</v>
       </c>
-      <c r="I18" s="22">
-        <v>0</v>
-      </c>
-      <c r="J18" s="22" t="s">
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="1"/>
@@ -2120,34 +2120,34 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="13">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="19">
         <v>33.473274496469301</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="19">
         <v>124.851821462582</v>
       </c>
-      <c r="I19" s="22">
-        <v>0</v>
-      </c>
-      <c r="J19" s="22" t="s">
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="1"/>
@@ -2168,32 +2168,32 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="13">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="19">
         <v>33.4732611496595</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="19">
         <v>124.851675519165</v>
       </c>
-      <c r="I20" s="22">
-        <v>0</v>
-      </c>
-      <c r="J20" s="22" t="s">
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="1"/>
@@ -2214,32 +2214,32 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="13">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="19">
         <v>33.4733916599846</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="19">
         <v>124.851508815336</v>
       </c>
-      <c r="I21" s="22">
-        <v>0</v>
-      </c>
-      <c r="J21" s="22" t="s">
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="1"/>
@@ -2260,32 +2260,32 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="13">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="19">
         <v>33.4733807241481</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="19">
         <v>124.851917789616</v>
       </c>
-      <c r="I22" s="22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="22" t="s">
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="1"/>
@@ -2306,32 +2306,32 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="13">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="19">
         <v>33.473570910203698</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="19">
         <v>124.851865770949</v>
       </c>
-      <c r="I23" s="22">
-        <v>0</v>
-      </c>
-      <c r="J23" s="22" t="s">
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="1"/>
@@ -2352,34 +2352,34 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="13">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="19">
         <v>33.4735484666991</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="19">
         <v>124.851819001256</v>
       </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-      <c r="J24" s="22" t="s">
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="1"/>
@@ -2400,34 +2400,34 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="13">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="19">
         <v>33.473371179927497</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="19">
         <v>124.85199116177201</v>
       </c>
-      <c r="I25" s="22">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22" t="s">
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="1"/>
@@ -2448,34 +2448,34 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="13">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="19">
         <v>33.473300119256102</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="19">
         <v>124.85101202661301</v>
       </c>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-      <c r="J26" s="22" t="s">
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="1"/>
@@ -2496,32 +2496,32 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="13">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="19">
         <v>33.4734529760496</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="19">
         <v>124.85171810694099</v>
       </c>
-      <c r="I27" s="22">
-        <v>0</v>
-      </c>
-      <c r="J27" s="22" t="s">
+      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="1"/>
@@ -2542,32 +2542,32 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="13">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="19">
         <v>33.474009690076301</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="19">
         <v>124.851803312699</v>
       </c>
-      <c r="I28" s="22">
-        <v>0</v>
-      </c>
-      <c r="J28" s="22" t="s">
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="1"/>
@@ -2588,32 +2588,32 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="13">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="19">
         <v>33.4735085243436</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="19">
         <v>124.85117896602701</v>
       </c>
-      <c r="I29" s="22">
-        <v>0</v>
-      </c>
-      <c r="J29" s="22" t="s">
+      <c r="I29" s="19">
+        <v>0</v>
+      </c>
+      <c r="J29" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K29" s="1"/>
@@ -2634,32 +2634,32 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="19">
         <v>33.473401203911202</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="19">
         <v>124.852059255057</v>
       </c>
-      <c r="I30" s="22">
-        <v>0</v>
-      </c>
-      <c r="J30" s="22" t="s">
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="1"/>
@@ -2680,32 +2680,32 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="13">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="19">
         <v>33.473348512803199</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="19">
         <v>124.851931491223</v>
       </c>
-      <c r="I31" s="22">
-        <v>0</v>
-      </c>
-      <c r="J31" s="22" t="s">
+      <c r="I31" s="19">
+        <v>0</v>
+      </c>
+      <c r="J31" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="1"/>
@@ -2726,34 +2726,34 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="13">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="19">
         <v>33.473348512803199</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="19">
         <v>124.851931491223</v>
       </c>
-      <c r="I32" s="22">
-        <v>0</v>
-      </c>
-      <c r="J32" s="22" t="s">
+      <c r="I32" s="19">
+        <v>0</v>
+      </c>
+      <c r="J32" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="1"/>
@@ -2774,32 +2774,32 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="13">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="19">
         <v>33.473634063777801</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="19">
         <v>124.85114144860199</v>
       </c>
-      <c r="I33" s="22">
-        <v>0</v>
-      </c>
-      <c r="J33" s="22" t="s">
+      <c r="I33" s="19">
+        <v>0</v>
+      </c>
+      <c r="J33" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K33" s="1"/>
@@ -2820,34 +2820,34 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="13">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="19">
         <v>33.473640301941302</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="19">
         <v>124.85108536644</v>
       </c>
-      <c r="I34" s="22">
-        <v>0</v>
-      </c>
-      <c r="J34" s="22" t="s">
+      <c r="I34" s="19">
+        <v>0</v>
+      </c>
+      <c r="J34" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="1"/>
@@ -2868,32 +2868,32 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="13">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="19">
         <v>33.473644502685197</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="19">
         <v>124.852367307356</v>
       </c>
-      <c r="I35" s="22">
-        <v>0</v>
-      </c>
-      <c r="J35" s="22" t="s">
+      <c r="I35" s="19">
+        <v>0</v>
+      </c>
+      <c r="J35" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="1"/>
@@ -2914,34 +2914,34 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="19">
         <v>33.473297685548602</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="19">
         <v>124.85191123519</v>
       </c>
-      <c r="I36" s="22">
-        <v>0</v>
-      </c>
-      <c r="J36" s="22" t="s">
+      <c r="I36" s="19">
+        <v>0</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="1"/>
@@ -2962,32 +2962,32 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="13">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="19">
         <v>33.473703085220002</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="19">
         <v>124.852210983483</v>
       </c>
-      <c r="I37" s="22">
-        <v>0</v>
-      </c>
-      <c r="J37" s="22" t="s">
+      <c r="I37" s="19">
+        <v>0</v>
+      </c>
+      <c r="J37" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K37" s="1"/>
@@ -3008,34 +3008,34 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="13">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="19">
         <v>33.473908507610503</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="19">
         <v>124.851582097483</v>
       </c>
-      <c r="I38" s="22">
-        <v>0</v>
-      </c>
-      <c r="J38" s="22" t="s">
+      <c r="I38" s="19">
+        <v>0</v>
+      </c>
+      <c r="J38" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K38" s="1"/>
@@ -3056,34 +3056,34 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="13">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="19">
         <v>33.473313863507201</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="19">
         <v>124.850972967869</v>
       </c>
-      <c r="I39" s="22">
-        <v>0</v>
-      </c>
-      <c r="J39" s="22" t="s">
+      <c r="I39" s="19">
+        <v>0</v>
+      </c>
+      <c r="J39" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K39" s="1"/>
@@ -3104,34 +3104,34 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="19">
         <v>33.473642315067998</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="19">
         <v>124.852449102462</v>
       </c>
-      <c r="I40" s="22">
-        <v>0</v>
-      </c>
-      <c r="J40" s="22" t="s">
+      <c r="I40" s="19">
+        <v>0</v>
+      </c>
+      <c r="J40" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K40" s="1"/>
@@ -3152,32 +3152,32 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="13">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="19">
         <v>33.473893346346003</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="19">
         <v>124.851539450063</v>
       </c>
-      <c r="I41" s="22">
-        <v>0</v>
-      </c>
-      <c r="J41" s="22" t="s">
+      <c r="I41" s="19">
+        <v>0</v>
+      </c>
+      <c r="J41" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="3"/>
@@ -3198,32 +3198,32 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="13">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="19">
         <v>33.473341874115697</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="19">
         <v>124.85092495248099</v>
       </c>
-      <c r="I42" s="22">
-        <v>0</v>
-      </c>
-      <c r="J42" s="22" t="s">
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K42" s="3"/>
@@ -3244,32 +3244,32 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="13">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="19">
         <v>33.4734529760496</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="19">
         <v>124.85171810694099</v>
       </c>
-      <c r="I43" s="22">
-        <v>0</v>
-      </c>
-      <c r="J43" s="22" t="s">
+      <c r="I43" s="19">
+        <v>0</v>
+      </c>
+      <c r="J43" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="3"/>
@@ -3290,32 +3290,32 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="13">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="19">
         <v>33.473570910203698</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="19">
         <v>124.851865770949</v>
       </c>
-      <c r="I44" s="22">
-        <v>0</v>
-      </c>
-      <c r="J44" s="22" t="s">
+      <c r="I44" s="19">
+        <v>0</v>
+      </c>
+      <c r="J44" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K44" s="1"/>
@@ -3336,32 +3336,32 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="13">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="19">
         <v>33.4733738885609</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="19">
         <v>124.85131565739201</v>
       </c>
-      <c r="I45" s="22">
-        <v>0</v>
-      </c>
-      <c r="J45" s="22" t="s">
+      <c r="I45" s="19">
+        <v>0</v>
+      </c>
+      <c r="J45" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="1"/>
@@ -3382,34 +3382,34 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="13">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="19">
         <v>33.474259550258601</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="19">
         <v>124.85124216123501</v>
       </c>
-      <c r="I46" s="22">
-        <v>0</v>
-      </c>
-      <c r="J46" s="22" t="s">
+      <c r="I46" s="19">
+        <v>0</v>
+      </c>
+      <c r="J46" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K46" s="1"/>
@@ -3430,34 +3430,34 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="13">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="19">
         <v>33.473673981303001</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="19">
         <v>124.85198798925801</v>
       </c>
-      <c r="I47" s="22">
-        <v>0</v>
-      </c>
-      <c r="J47" s="22" t="s">
+      <c r="I47" s="19">
+        <v>0</v>
+      </c>
+      <c r="J47" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="1"/>
@@ -3478,32 +3478,32 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="13">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22" t="s">
+      <c r="D48" s="19"/>
+      <c r="E48" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="19">
         <v>33.473546997375301</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="19">
         <v>124.850902677867</v>
       </c>
-      <c r="I48" s="22">
-        <v>0</v>
-      </c>
-      <c r="J48" s="22" t="s">
+      <c r="I48" s="19">
+        <v>0</v>
+      </c>
+      <c r="J48" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K48" s="1"/>
@@ -3524,32 +3524,32 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="13">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22" t="s">
+      <c r="D49" s="19"/>
+      <c r="E49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="19">
         <v>33.473917031675498</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="19">
         <v>124.851242015086</v>
       </c>
-      <c r="I49" s="22">
-        <v>0</v>
-      </c>
-      <c r="J49" s="22" t="s">
+      <c r="I49" s="19">
+        <v>0</v>
+      </c>
+      <c r="J49" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K49" s="1"/>
@@ -3570,32 +3570,32 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="13">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="19">
         <v>33.473691103636099</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="19">
         <v>124.852559754692</v>
       </c>
-      <c r="I50" s="22">
-        <v>0</v>
-      </c>
-      <c r="J50" s="22" t="s">
+      <c r="I50" s="19">
+        <v>0</v>
+      </c>
+      <c r="J50" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K50" s="1"/>
@@ -3616,32 +3616,32 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22" t="s">
+      <c r="D51" s="19"/>
+      <c r="E51" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="19">
         <v>33.4741180551894</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="19">
         <v>124.851607039009</v>
       </c>
-      <c r="I51" s="22">
-        <v>0</v>
-      </c>
-      <c r="J51" s="22" t="s">
+      <c r="I51" s="19">
+        <v>0</v>
+      </c>
+      <c r="J51" s="19" t="s">
         <v>145</v>
       </c>
       <c r="K51" s="1"/>
@@ -3662,32 +3662,32 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="13">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22" t="s">
+      <c r="D52" s="19"/>
+      <c r="E52" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="19">
         <v>33.474050973206502</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="19">
         <v>124.851896941552</v>
       </c>
-      <c r="I52" s="22">
-        <v>0</v>
-      </c>
-      <c r="J52" s="22" t="s">
+      <c r="I52" s="19">
+        <v>0</v>
+      </c>
+      <c r="J52" s="19" t="s">
         <v>145</v>
       </c>
       <c r="K52" s="1"/>
@@ -3708,32 +3708,32 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="13">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22" t="s">
+      <c r="D53" s="19"/>
+      <c r="E53" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="19">
         <v>33.474014884615002</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="19">
         <v>124.851687025554</v>
       </c>
-      <c r="I53" s="22">
-        <v>0</v>
-      </c>
-      <c r="J53" s="22" t="s">
+      <c r="I53" s="19">
+        <v>0</v>
+      </c>
+      <c r="J53" s="19" t="s">
         <v>145</v>
       </c>
       <c r="K53" s="1"/>
@@ -3754,1598 +3754,1598 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="13">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22" t="s">
+      <c r="D54" s="19"/>
+      <c r="E54" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="19">
         <v>33.473953792044199</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="19">
         <v>124.852114449566</v>
       </c>
-      <c r="I54" s="22">
-        <v>0</v>
-      </c>
-      <c r="J54" s="22" t="s">
+      <c r="I54" s="19">
+        <v>0</v>
+      </c>
+      <c r="J54" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="13">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22" t="s">
+      <c r="D55" s="19"/>
+      <c r="E55" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="19">
         <v>33.473812171064701</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="19">
         <v>124.852264219182</v>
       </c>
-      <c r="I55" s="22">
-        <v>0</v>
-      </c>
-      <c r="J55" s="22" t="s">
+      <c r="I55" s="19">
+        <v>0</v>
+      </c>
+      <c r="J55" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="13">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22" t="s">
+      <c r="D56" s="19"/>
+      <c r="E56" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G56" s="19">
         <v>33.473822486367403</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="19">
         <v>124.852027345087</v>
       </c>
-      <c r="I56" s="22">
-        <v>0</v>
-      </c>
-      <c r="J56" s="22" t="s">
+      <c r="I56" s="19">
+        <v>0</v>
+      </c>
+      <c r="J56" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="13">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22" t="s">
+      <c r="D57" s="19"/>
+      <c r="E57" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G57" s="19">
         <v>33.473683250973899</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="19">
         <v>124.852314725024</v>
       </c>
-      <c r="I57" s="22">
-        <v>0</v>
-      </c>
-      <c r="J57" s="22" t="s">
+      <c r="I57" s="19">
+        <v>0</v>
+      </c>
+      <c r="J57" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="13">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22" t="s">
+      <c r="D58" s="19"/>
+      <c r="E58" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="19">
         <v>33.473691151808701</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="19">
         <v>124.852770559668</v>
       </c>
-      <c r="I58" s="22">
-        <v>0</v>
-      </c>
-      <c r="J58" s="22" t="s">
+      <c r="I58" s="19">
+        <v>0</v>
+      </c>
+      <c r="J58" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="13">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22" t="s">
+      <c r="D59" s="19"/>
+      <c r="E59" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="19">
         <v>33.473354751334398</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="19">
         <v>124.851875409283</v>
       </c>
-      <c r="I59" s="22">
-        <v>0</v>
-      </c>
-      <c r="J59" s="22" t="s">
+      <c r="I59" s="19">
+        <v>0</v>
+      </c>
+      <c r="J59" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="13">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22" t="s">
+      <c r="D60" s="19"/>
+      <c r="E60" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G60" s="19">
         <v>33.473282748081402</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="19">
         <v>124.851881488914</v>
       </c>
-      <c r="I60" s="22">
-        <v>0</v>
-      </c>
-      <c r="J60" s="22" t="s">
+      <c r="I60" s="19">
+        <v>0</v>
+      </c>
+      <c r="J60" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="13">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22" t="s">
+      <c r="D61" s="19"/>
+      <c r="E61" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="G61" s="22">
+      <c r="G61" s="19">
         <v>33.473521300832097</v>
       </c>
-      <c r="H61" s="22">
+      <c r="H61" s="19">
         <v>124.851707815813</v>
       </c>
-      <c r="I61" s="22">
-        <v>0</v>
-      </c>
-      <c r="J61" s="22" t="s">
+      <c r="I61" s="19">
+        <v>0</v>
+      </c>
+      <c r="J61" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="13">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22" t="s">
+      <c r="D62" s="19"/>
+      <c r="E62" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G62" s="22">
+      <c r="G62" s="19">
         <v>33.4734415178619</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="19">
         <v>124.851473167097</v>
       </c>
-      <c r="I62" s="22">
-        <v>0</v>
-      </c>
-      <c r="J62" s="22" t="s">
+      <c r="I62" s="19">
+        <v>0</v>
+      </c>
+      <c r="J62" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="13">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22" t="s">
+      <c r="D63" s="19"/>
+      <c r="E63" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="22">
+      <c r="G63" s="19">
         <v>33.473246510402198</v>
       </c>
-      <c r="H63" s="22">
+      <c r="H63" s="19">
         <v>124.851662974155</v>
       </c>
-      <c r="I63" s="22">
-        <v>0</v>
-      </c>
-      <c r="J63" s="22" t="s">
+      <c r="I63" s="19">
+        <v>0</v>
+      </c>
+      <c r="J63" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="13">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22" t="s">
+      <c r="D64" s="19"/>
+      <c r="E64" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G64" s="19">
         <v>33.473363822666798</v>
       </c>
-      <c r="H64" s="22">
+      <c r="H64" s="19">
         <v>124.851358927436</v>
       </c>
-      <c r="I64" s="22">
-        <v>0</v>
-      </c>
-      <c r="J64" s="22" t="s">
+      <c r="I64" s="19">
+        <v>0</v>
+      </c>
+      <c r="J64" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="13">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22" t="s">
+      <c r="D65" s="19"/>
+      <c r="E65" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G65" s="22">
+      <c r="G65" s="19">
         <v>33.473116571213701</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="19">
         <v>124.851446773172</v>
       </c>
-      <c r="I65" s="22">
-        <v>0</v>
-      </c>
-      <c r="J65" s="22" t="s">
+      <c r="I65" s="19">
+        <v>0</v>
+      </c>
+      <c r="J65" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="13">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22" t="s">
+      <c r="D66" s="19"/>
+      <c r="E66" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G66" s="19">
         <v>33.473587735313401</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H66" s="19">
         <v>124.851172707798</v>
       </c>
-      <c r="I66" s="22">
-        <v>0</v>
-      </c>
-      <c r="J66" s="22" t="s">
+      <c r="I66" s="19">
+        <v>0</v>
+      </c>
+      <c r="J66" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="13">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22" t="s">
+      <c r="D67" s="19"/>
+      <c r="E67" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G67" s="19">
         <v>33.473449543209497</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H67" s="19">
         <v>124.850896480439</v>
       </c>
-      <c r="I67" s="22">
-        <v>0</v>
-      </c>
-      <c r="J67" s="22" t="s">
+      <c r="I67" s="19">
+        <v>0</v>
+      </c>
+      <c r="J67" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="13">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22" t="s">
+      <c r="D68" s="19"/>
+      <c r="E68" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="19">
         <v>33.474044259321197</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H68" s="19">
         <v>124.850886094361</v>
       </c>
-      <c r="I68" s="22">
-        <v>0</v>
-      </c>
-      <c r="J68" s="22" t="s">
+      <c r="I68" s="19">
+        <v>0</v>
+      </c>
+      <c r="J68" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="13">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22" t="s">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G69" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H69" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I69" s="22">
-        <v>0</v>
-      </c>
-      <c r="J69" s="22" t="s">
+      <c r="I69" s="19">
+        <v>0</v>
+      </c>
+      <c r="J69" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="13">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22" t="s">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H70" s="22">
+      <c r="H70" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I70" s="22">
-        <v>0</v>
-      </c>
-      <c r="J70" s="22" t="s">
+      <c r="I70" s="19">
+        <v>0</v>
+      </c>
+      <c r="J70" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="13">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22" t="s">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G71" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H71" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I71" s="22">
-        <v>0</v>
-      </c>
-      <c r="J71" s="22" t="s">
+      <c r="I71" s="19">
+        <v>0</v>
+      </c>
+      <c r="J71" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="13">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22" t="s">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H72" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I72" s="22">
-        <v>0</v>
-      </c>
-      <c r="J72" s="22" t="s">
+      <c r="I72" s="19">
+        <v>0</v>
+      </c>
+      <c r="J72" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="13">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22" t="s">
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G73" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H73" s="22">
+      <c r="H73" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I73" s="22">
-        <v>0</v>
-      </c>
-      <c r="J73" s="22" t="s">
+      <c r="I73" s="19">
+        <v>0</v>
+      </c>
+      <c r="J73" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="13">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22" t="s">
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H74" s="22">
+      <c r="H74" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I74" s="22">
-        <v>0</v>
-      </c>
-      <c r="J74" s="22" t="s">
+      <c r="I74" s="19">
+        <v>0</v>
+      </c>
+      <c r="J74" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="13">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22" t="s">
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G75" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H75" s="22">
+      <c r="H75" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I75" s="22">
-        <v>0</v>
-      </c>
-      <c r="J75" s="22" t="s">
+      <c r="I75" s="19">
+        <v>0</v>
+      </c>
+      <c r="J75" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="13">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22" t="s">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H76" s="22">
+      <c r="H76" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I76" s="22">
-        <v>0</v>
-      </c>
-      <c r="J76" s="22" t="s">
+      <c r="I76" s="19">
+        <v>0</v>
+      </c>
+      <c r="J76" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22" t="s">
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G77" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H77" s="22">
+      <c r="H77" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I77" s="22">
-        <v>0</v>
-      </c>
-      <c r="J77" s="22" t="s">
+      <c r="I77" s="19">
+        <v>0</v>
+      </c>
+      <c r="J77" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="13">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22" t="s">
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G78" s="22">
+      <c r="G78" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H78" s="22">
+      <c r="H78" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I78" s="22">
-        <v>0</v>
-      </c>
-      <c r="J78" s="22" t="s">
+      <c r="I78" s="19">
+        <v>0</v>
+      </c>
+      <c r="J78" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="13">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22" t="s">
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G79" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H79" s="22">
+      <c r="H79" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I79" s="22">
-        <v>0</v>
-      </c>
-      <c r="J79" s="22" t="s">
+      <c r="I79" s="19">
+        <v>0</v>
+      </c>
+      <c r="J79" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="13">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22" t="s">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G80" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H80" s="22">
+      <c r="H80" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I80" s="22">
-        <v>0</v>
-      </c>
-      <c r="J80" s="22" t="s">
+      <c r="I80" s="19">
+        <v>0</v>
+      </c>
+      <c r="J80" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="13">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22" t="s">
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G81" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H81" s="22">
+      <c r="H81" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I81" s="22">
-        <v>0</v>
-      </c>
-      <c r="J81" s="22" t="s">
+      <c r="I81" s="19">
+        <v>0</v>
+      </c>
+      <c r="J81" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22" t="s">
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G82" s="22">
+      <c r="G82" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H82" s="22">
+      <c r="H82" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I82" s="22">
-        <v>0</v>
-      </c>
-      <c r="J82" s="22" t="s">
+      <c r="I82" s="19">
+        <v>0</v>
+      </c>
+      <c r="J82" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="13">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22" t="s">
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G83" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H83" s="22">
+      <c r="H83" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I83" s="22">
-        <v>0</v>
-      </c>
-      <c r="J83" s="22" t="s">
+      <c r="I83" s="19">
+        <v>0</v>
+      </c>
+      <c r="J83" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22" t="s">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G84" s="19">
         <v>33.473982722064299</v>
       </c>
-      <c r="H84" s="22">
+      <c r="H84" s="19">
         <v>124.851287716897</v>
       </c>
-      <c r="I84" s="22">
-        <v>0</v>
-      </c>
-      <c r="J84" s="22" t="s">
+      <c r="I84" s="19">
+        <v>0</v>
+      </c>
+      <c r="J84" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22" t="s">
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G85" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H85" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I85" s="22">
-        <v>0</v>
-      </c>
-      <c r="J85" s="22" t="s">
+      <c r="I85" s="19">
+        <v>0</v>
+      </c>
+      <c r="J85" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="13">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22" t="s">
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H86" s="22">
+      <c r="H86" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I86" s="22">
-        <v>0</v>
-      </c>
-      <c r="J86" s="22" t="s">
+      <c r="I86" s="19">
+        <v>0</v>
+      </c>
+      <c r="J86" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="13">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22" t="s">
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H87" s="22">
+      <c r="H87" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I87" s="22">
-        <v>0</v>
-      </c>
-      <c r="J87" s="22" t="s">
+      <c r="I87" s="19">
+        <v>0</v>
+      </c>
+      <c r="J87" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="13">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22" t="s">
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G88" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H88" s="22">
+      <c r="H88" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I88" s="22">
-        <v>0</v>
-      </c>
-      <c r="J88" s="22" t="s">
+      <c r="I88" s="19">
+        <v>0</v>
+      </c>
+      <c r="J88" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22" t="s">
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H89" s="22">
+      <c r="H89" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I89" s="22">
-        <v>0</v>
-      </c>
-      <c r="J89" s="22" t="s">
+      <c r="I89" s="19">
+        <v>0</v>
+      </c>
+      <c r="J89" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="13">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22" t="s">
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G90" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H90" s="22">
+      <c r="H90" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I90" s="22">
-        <v>0</v>
-      </c>
-      <c r="J90" s="22" t="s">
+      <c r="I90" s="19">
+        <v>0</v>
+      </c>
+      <c r="J90" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="13">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22" t="s">
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G91" s="22">
+      <c r="G91" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H91" s="22">
+      <c r="H91" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I91" s="22">
-        <v>0</v>
-      </c>
-      <c r="J91" s="22" t="s">
+      <c r="I91" s="19">
+        <v>0</v>
+      </c>
+      <c r="J91" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="13">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22" t="s">
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G92" s="22">
+      <c r="G92" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H92" s="22">
+      <c r="H92" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I92" s="22">
-        <v>0</v>
-      </c>
-      <c r="J92" s="22" t="s">
+      <c r="I92" s="19">
+        <v>0</v>
+      </c>
+      <c r="J92" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="13">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22" t="s">
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G93" s="22">
+      <c r="G93" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H93" s="22">
+      <c r="H93" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I93" s="22">
-        <v>0</v>
-      </c>
-      <c r="J93" s="22" t="s">
+      <c r="I93" s="19">
+        <v>0</v>
+      </c>
+      <c r="J93" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="13">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22" t="s">
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G94" s="22">
+      <c r="G94" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H94" s="22">
+      <c r="H94" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I94" s="22">
-        <v>0</v>
-      </c>
-      <c r="J94" s="22" t="s">
+      <c r="I94" s="19">
+        <v>0</v>
+      </c>
+      <c r="J94" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="13">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22" t="s">
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G95" s="22">
+      <c r="G95" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H95" s="22">
+      <c r="H95" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I95" s="22">
-        <v>0</v>
-      </c>
-      <c r="J95" s="22" t="s">
+      <c r="I95" s="19">
+        <v>0</v>
+      </c>
+      <c r="J95" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="13">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22" t="s">
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G96" s="22">
+      <c r="G96" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H96" s="22">
+      <c r="H96" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I96" s="22">
-        <v>0</v>
-      </c>
-      <c r="J96" s="22" t="s">
+      <c r="I96" s="19">
+        <v>0</v>
+      </c>
+      <c r="J96" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="13">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22" t="s">
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G97" s="22">
+      <c r="G97" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H97" s="22">
+      <c r="H97" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I97" s="22">
-        <v>0</v>
-      </c>
-      <c r="J97" s="22" t="s">
+      <c r="I97" s="19">
+        <v>0</v>
+      </c>
+      <c r="J97" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="13">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22" t="s">
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G98" s="22">
+      <c r="G98" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H98" s="22">
+      <c r="H98" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I98" s="22">
-        <v>0</v>
-      </c>
-      <c r="J98" s="22" t="s">
+      <c r="I98" s="19">
+        <v>0</v>
+      </c>
+      <c r="J98" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="13">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22" t="s">
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G99" s="22">
+      <c r="G99" s="19">
         <v>33.473942702245402</v>
       </c>
-      <c r="H99" s="22">
+      <c r="H99" s="19">
         <v>124.85064337855</v>
       </c>
-      <c r="I99" s="22">
-        <v>0</v>
-      </c>
-      <c r="J99" s="22" t="s">
+      <c r="I99" s="19">
+        <v>0</v>
+      </c>
+      <c r="J99" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="13">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22" t="s">
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="F100" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="G100" s="22">
+      <c r="G100" s="19">
         <v>33.474108559846798</v>
       </c>
-      <c r="H100" s="22">
+      <c r="H100" s="19">
         <v>124.851267400761</v>
       </c>
-      <c r="I100" s="22">
-        <v>0</v>
-      </c>
-      <c r="J100" s="22" t="s">
+      <c r="I100" s="19">
+        <v>0</v>
+      </c>
+      <c r="J100" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="13">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22" t="s">
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F101" s="22" t="s">
+      <c r="F101" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G101" s="22">
+      <c r="G101" s="19">
         <v>33.473672066577599</v>
       </c>
-      <c r="H101" s="22">
+      <c r="H101" s="19">
         <v>124.852293490245</v>
       </c>
-      <c r="I101" s="22">
-        <v>0</v>
-      </c>
-      <c r="J101" s="22" t="s">
+      <c r="I101" s="19">
+        <v>0</v>
+      </c>
+      <c r="J101" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="13">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22" t="s">
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F102" s="22" t="s">
+      <c r="F102" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="G102" s="22">
+      <c r="G102" s="19">
         <v>33.473978792582301</v>
       </c>
-      <c r="H102" s="22">
+      <c r="H102" s="19">
         <v>124.85085329384199</v>
       </c>
-      <c r="I102" s="22">
-        <v>0</v>
-      </c>
-      <c r="J102" s="22" t="s">
+      <c r="I102" s="19">
+        <v>0</v>
+      </c>
+      <c r="J102" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="13">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22" t="s">
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F103" s="22" t="s">
+      <c r="F103" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G103" s="22">
+      <c r="G103" s="19">
         <v>33.473647212059802</v>
       </c>
-      <c r="H103" s="22">
+      <c r="H103" s="19">
         <v>124.852315614517</v>
       </c>
-      <c r="I103" s="22">
-        <v>0</v>
-      </c>
-      <c r="J103" s="22" t="s">
+      <c r="I103" s="19">
+        <v>0</v>
+      </c>
+      <c r="J103" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="13">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22" t="s">
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F104" s="22" t="s">
+      <c r="F104" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G104" s="22">
+      <c r="G104" s="19">
         <v>33.473874899801899</v>
       </c>
-      <c r="H104" s="22">
+      <c r="H104" s="19">
         <v>124.85068377289301</v>
       </c>
-      <c r="I104" s="22">
-        <v>0</v>
-      </c>
-      <c r="J104" s="22" t="s">
+      <c r="I104" s="19">
+        <v>0</v>
+      </c>
+      <c r="J104" s="19" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="13">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22" t="s">
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="F105" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="G105" s="22">
+      <c r="G105" s="19">
         <v>33.4735308935009</v>
       </c>
-      <c r="H105" s="22">
+      <c r="H105" s="19">
         <v>124.85122143520501</v>
       </c>
-      <c r="I105" s="22">
-        <v>0</v>
-      </c>
-      <c r="J105" s="22" t="s">
+      <c r="I105" s="19">
+        <v>0</v>
+      </c>
+      <c r="J105" s="19" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="13">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22" t="s">
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="F106" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G106" s="22">
+      <c r="G106" s="19">
         <v>33.4737186445182</v>
       </c>
-      <c r="H106" s="22">
+      <c r="H106" s="19">
         <v>124.852068627913</v>
       </c>
-      <c r="I106" s="22">
-        <v>0</v>
-      </c>
-      <c r="J106" s="22" t="s">
+      <c r="I106" s="19">
+        <v>0</v>
+      </c>
+      <c r="J106" s="19" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="13">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22" t="s">
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="F107" s="22" t="s">
+      <c r="F107" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="G107" s="22">
+      <c r="G107" s="19">
         <v>33.473899581646002</v>
       </c>
-      <c r="H107" s="22">
+      <c r="H107" s="19">
         <v>124.85085955240901</v>
       </c>
-      <c r="I107" s="22">
-        <v>0</v>
-      </c>
-      <c r="J107" s="22" t="s">
+      <c r="I107" s="19">
+        <v>0</v>
+      </c>
+      <c r="J107" s="19" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="13">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22" t="s">
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="F108" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="G108" s="22">
+      <c r="G108" s="19">
         <v>33.473899581646002</v>
       </c>
-      <c r="H108" s="22">
+      <c r="H108" s="19">
         <v>124.85085955240901</v>
       </c>
-      <c r="I108" s="22">
-        <v>0</v>
-      </c>
-      <c r="J108" s="22" t="s">
+      <c r="I108" s="19">
+        <v>0</v>
+      </c>
+      <c r="J108" s="19" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="13">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22" t="s">
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F109" s="22" t="s">
+      <c r="F109" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G109" s="22">
+      <c r="G109" s="19">
         <v>33.473275115801002</v>
       </c>
-      <c r="H109" s="22">
+      <c r="H109" s="19">
         <v>124.851025550533</v>
       </c>
-      <c r="I109" s="22">
-        <v>0</v>
-      </c>
-      <c r="J109" s="22" t="s">
+      <c r="I109" s="19">
+        <v>0</v>
+      </c>
+      <c r="J109" s="19" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="13">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22" t="s">
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F110" s="22" t="s">
+      <c r="F110" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="G110" s="22">
+      <c r="G110" s="19">
         <v>33.474108559846798</v>
       </c>
-      <c r="H110" s="22">
+      <c r="H110" s="19">
         <v>124.851267400761</v>
       </c>
-      <c r="I110" s="22">
-        <v>0</v>
-      </c>
-      <c r="J110" s="22" t="s">
+      <c r="I110" s="19">
+        <v>0</v>
+      </c>
+      <c r="J110" s="19" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="13">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C111" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="D111" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="E111" s="22" t="s">
+      <c r="E111" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F111" s="22" t="s">
+      <c r="F111" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G111" s="22">
+      <c r="G111" s="19">
         <v>33.473461049527202</v>
       </c>
-      <c r="H111" s="22">
+      <c r="H111" s="19">
         <v>124.850728412287</v>
       </c>
-      <c r="I111" s="22">
-        <v>0</v>
-      </c>
-      <c r="J111" s="22" t="s">
+      <c r="I111" s="19">
+        <v>0</v>
+      </c>
+      <c r="J111" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7702,12 +7702,12 @@
       <c r="C1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="5" t="s">
@@ -7716,15 +7716,15 @@
       <c r="B2" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="8" t="s">
@@ -7736,12 +7736,12 @@
       <c r="C3" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -7767,15 +7767,15 @@
       <c r="B5" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="8" t="s">
@@ -7784,15 +7784,15 @@
       <c r="B6" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="8" t="s">
@@ -7801,15 +7801,15 @@
       <c r="B7" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="8" t="s">
@@ -7818,15 +7818,15 @@
       <c r="B8" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -7855,12 +7855,12 @@
       <c r="C10" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" s="8" t="s">
@@ -7872,12 +7872,12 @@
       <c r="C11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="8" t="s">
@@ -7889,12 +7889,12 @@
       <c r="C12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="8" t="s">
@@ -7906,12 +7906,12 @@
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
@@ -7957,12 +7957,12 @@
       <c r="C16" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="8" t="s">
@@ -7974,12 +7974,12 @@
       <c r="C17" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="8" t="s">
@@ -7991,12 +7991,12 @@
       <c r="C18" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
@@ -8025,12 +8025,12 @@
       <c r="C20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="5" t="s">
@@ -8042,12 +8042,12 @@
       <c r="C21" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="8" t="s">
@@ -8059,12 +8059,12 @@
       <c r="C22" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
@@ -8090,15 +8090,15 @@
       <c r="B24" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="5" t="s">
@@ -8110,12 +8110,12 @@
       <c r="C25" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="8" t="s">
@@ -8124,15 +8124,15 @@
       <c r="B26" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
@@ -8158,15 +8158,15 @@
       <c r="B28" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="5" t="s">
@@ -8175,15 +8175,15 @@
       <c r="B29" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="5" t="s">
@@ -8192,15 +8192,15 @@
       <c r="B30" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
@@ -8314,12 +8314,12 @@
       <c r="C37" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" ht="15">
       <c r="A38" s="8" t="s">
@@ -8331,12 +8331,12 @@
       <c r="C38" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="8" t="s">
@@ -8348,12 +8348,12 @@
       <c r="C39" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
     </row>
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="8" t="s">
@@ -8362,15 +8362,15 @@
       <c r="B40" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" ht="15">
       <c r="A41" s="8" t="s">
@@ -8379,15 +8379,15 @@
       <c r="B41" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9" ht="15">
       <c r="A42" s="8" t="s">
@@ -8399,12 +8399,12 @@
       <c r="C42" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9" ht="15">
       <c r="A43" s="8" t="s">
@@ -8413,15 +8413,15 @@
       <c r="B43" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44" spans="1:9" ht="15">
       <c r="A44" s="8" t="s">
@@ -8430,15 +8430,15 @@
       <c r="B44" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
     </row>
     <row r="45" spans="1:9" ht="15">
       <c r="A45" s="8" t="s">
@@ -8447,15 +8447,15 @@
       <c r="B45" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
@@ -8578,26 +8578,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
     <mergeCell ref="C28:I28"/>
     <mergeCell ref="C42:I42"/>
     <mergeCell ref="C43:I43"/>
@@ -8610,6 +8590,26 @@
     <mergeCell ref="C39:I39"/>
     <mergeCell ref="C40:I40"/>
     <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
